--- a/FinalProject/좌표.xlsx
+++ b/FinalProject/좌표.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vrgit\3DYutPlay\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\t\3DYutPlay\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{795DD170-D2C9-4E53-96DB-C0F5F3FDD504}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD23298F-9AE0-427E-A483-4C10C607B3A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{638DB719-335A-4822-A8C0-D0DDE82504B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6 (2)" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,16 +27,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00"/>
-    <numFmt numFmtId="181" formatCode="0000"/>
-    <numFmt numFmtId="182" formatCode="00000"/>
+    <numFmt numFmtId="177" formatCode="0000"/>
+    <numFmt numFmtId="178" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,37 +250,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,52 +621,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8465D4E-B52F-40BD-BB70-FDE63501CF22}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="30" width="6.625" customWidth="1"/>
+    <col min="1" max="34" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
-        <f t="shared" ref="A1:A4" si="0">A2+4</f>
-        <v>20</v>
-      </c>
-      <c r="B1" s="28">
-        <f>A1+400</f>
-        <v>420</v>
-      </c>
-      <c r="C1" s="28">
-        <f t="shared" ref="C1:F6" si="1">B1+400</f>
-        <v>820</v>
-      </c>
-      <c r="D1" s="28">
-        <f t="shared" si="1"/>
-        <v>1220</v>
-      </c>
-      <c r="E1" s="28">
-        <f t="shared" si="1"/>
-        <v>1620</v>
-      </c>
-      <c r="F1" s="29">
-        <f t="shared" si="1"/>
-        <v>2020</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+    <row r="1" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1" s="43">
+        <v>28</v>
+      </c>
+      <c r="H1" s="37">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="38">
+        <v>28</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
@@ -658,47 +675,39 @@
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
-    </row>
-    <row r="2" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B2" s="31">
-        <f>A2+400</f>
-        <v>416</v>
-      </c>
-      <c r="C2" s="31">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="D2" s="31">
-        <f t="shared" si="1"/>
-        <v>1216</v>
-      </c>
-      <c r="E2" s="31">
-        <f t="shared" si="1"/>
-        <v>1616</v>
-      </c>
-      <c r="F2" s="32">
-        <f t="shared" si="1"/>
-        <v>2016</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31">
-        <v>815</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31">
-        <v>1615</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+    </row>
+    <row r="2" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="30">
+        <v>20</v>
+      </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
@@ -709,45 +718,43 @@
       <c r="X2" s="31"/>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
-      <c r="AA2" s="32"/>
-    </row>
-    <row r="3" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B3" s="31">
-        <f>A3+400</f>
-        <v>412</v>
-      </c>
-      <c r="C3" s="31">
-        <f t="shared" si="1"/>
-        <v>812</v>
-      </c>
-      <c r="D3" s="31">
-        <f t="shared" si="1"/>
-        <v>1212</v>
-      </c>
-      <c r="E3" s="31">
-        <f t="shared" si="1"/>
-        <v>1612</v>
-      </c>
-      <c r="F3" s="32">
-        <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31">
-        <v>1010</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31">
+        <v>2020</v>
+      </c>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+    </row>
+    <row r="3" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="23">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="23">
+        <v>33</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
@@ -758,47 +765,35 @@
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="32"/>
-    </row>
-    <row r="4" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B4" s="31">
-        <f>A4+400</f>
-        <v>408</v>
-      </c>
-      <c r="C4" s="31">
-        <f t="shared" si="1"/>
-        <v>808</v>
-      </c>
-      <c r="D4" s="31">
-        <f t="shared" si="1"/>
-        <v>1208</v>
-      </c>
-      <c r="E4" s="31">
-        <f t="shared" si="1"/>
-        <v>1608</v>
-      </c>
-      <c r="F4" s="32">
-        <f t="shared" si="1"/>
-        <v>2008</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31">
-        <v>805</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31">
-        <v>1605</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="32"/>
+    </row>
+    <row r="4" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="44">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="44">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="30">
+        <v>16</v>
+      </c>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
@@ -809,234 +804,277 @@
       <c r="X4" s="31"/>
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
-      <c r="AA4" s="32"/>
-    </row>
-    <row r="5" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <f>A6+4</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="31">
-        <f>A5+400</f>
-        <v>404</v>
-      </c>
-      <c r="C5" s="31">
-        <f t="shared" si="1"/>
-        <v>804</v>
-      </c>
-      <c r="D5" s="31">
-        <f t="shared" si="1"/>
-        <v>1204</v>
-      </c>
-      <c r="E5" s="31">
-        <f t="shared" si="1"/>
-        <v>1604</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="1"/>
-        <v>2004</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31">
+        <v>2016</v>
+      </c>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="32"/>
+    </row>
+    <row r="5" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="23">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="23">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
-      <c r="AA5" s="32"/>
-    </row>
-    <row r="6" spans="1:27" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>0</v>
-      </c>
-      <c r="B6" s="34">
-        <f>A6+400</f>
-        <v>400</v>
-      </c>
-      <c r="C6" s="34">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="D6" s="34">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="E6" s="34">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="F6" s="35">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="32"/>
+    </row>
+    <row r="6" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="30">
+        <v>12</v>
+      </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
-      <c r="S6" s="36"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="36"/>
       <c r="U6" s="36"/>
       <c r="V6" s="36"/>
       <c r="W6" s="36"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="32"/>
-    </row>
-    <row r="7" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="31">
+        <v>2012</v>
+      </c>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="32"/>
+    </row>
+    <row r="7" spans="1:31" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="42">
+        <v>5</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="40">
+        <v>5</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
-      <c r="S7" s="36"/>
+      <c r="S7" s="31"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
       <c r="V7" s="36"/>
       <c r="W7" s="36"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32"/>
-    </row>
-    <row r="8" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="32"/>
+    </row>
+    <row r="8" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
-      <c r="S8" s="36"/>
+      <c r="S8" s="31"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
+      <c r="V8" s="36">
+        <v>1212</v>
+      </c>
       <c r="W8" s="36"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
-    </row>
-    <row r="9" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="32"/>
+    </row>
+    <row r="9" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="36"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
       <c r="W9" s="36"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="32"/>
-    </row>
-    <row r="10" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="32"/>
+    </row>
+    <row r="10" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="30">
+        <v>8</v>
+      </c>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="32"/>
-    </row>
-    <row r="11" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="T10" s="36">
+        <v>808</v>
+      </c>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="31">
+        <v>2008</v>
+      </c>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="32"/>
+    </row>
+    <row r="11" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
@@ -1047,27 +1085,35 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
-      <c r="AA11" s="32"/>
-    </row>
-    <row r="12" spans="1:27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
+    </row>
+    <row r="12" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="30">
+        <v>4</v>
+      </c>
       <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="R12" s="31">
+        <v>404</v>
+      </c>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
@@ -1076,41 +1122,96 @@
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
-      <c r="AA12" s="32"/>
-    </row>
-    <row r="13" spans="1:27" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31">
+        <v>2004</v>
+      </c>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="32"/>
+    </row>
+    <row r="13" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="32"/>
+    </row>
+    <row r="14" spans="1:31" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34">
+        <v>400</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34">
+        <v>800</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34">
+        <v>1200</v>
+      </c>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34">
+        <v>1600</v>
+      </c>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34">
+        <v>2000</v>
+      </c>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1330,19 +1431,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CC8BA-9406-42BD-899B-8BE805855BB4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C47857-9FF9-4023-A9FA-C366037AA475}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
@@ -2228,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128AB56-3E50-459A-A7FD-11F562D22E1B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
